--- a/data/2D obstacles/2D.xlsx
+++ b/data/2D obstacles/2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\2D obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63057E32-A94D-4305-AEB4-4ACAB1C4B733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB25600B-9EC3-417C-BA50-BA78E53BD7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -542,7 +542,7 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -585,8 +585,9 @@
     <hyperlink ref="D3" r:id="rId2" xr:uid="{12877F7F-A277-4310-A2AF-F1E677DFAC41}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{88A72CC5-6AEB-4EEC-8A73-59AFAE643CE9}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{1662E996-667C-4172-ADE8-638A4D4ABDBA}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{E26C3336-DD40-433D-8E34-1CABEBB87EDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/data/2D obstacles/2D.xlsx
+++ b/data/2D obstacles/2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\2D obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB25600B-9EC3-417C-BA50-BA78E53BD7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A82FC5E-6772-4D87-A5A5-F8A498F593A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Number</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Thusoo, R.; Jain, S.; Bangia, S. An Evaluation of UAV Path Following and Collision Avoidance Using NFMGOA Control Algorithm. Wireless Personal Communications 2021, 122, 1247-1266, http://doi.org/10.1007/s11277-021-08947-6.</t>
+  </si>
+  <si>
+    <t>Formation control</t>
+  </si>
+  <si>
+    <t>Wang, Y.; Sun, X. Formation Control of Multi-UAV with Collision Avoidance using Artificial Potential Field. In Proceedings of the 2019 11th International Conference on Intelligent Human-Machine Systems and Cybernetics (IHMSC), 2019; pp. 296-300, http://doi.org/10.1109/ihmsc.2019.00075.</t>
+  </si>
+  <si>
+    <t>Du, Y.; Zhang, X.; Nie, Z. A Real-Time Collision Avoidance Strategy in Dynamic Airspace Based on Dynamic Artificial Potential Field Algorithm. IEEE Access 2019, 7, 169469-169479, http://doi.org/10.1109/access.2019.2953946.</t>
   </si>
 </sst>
 </file>
@@ -430,7 +439,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -553,10 +562,34 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">

--- a/data/2D obstacles/2D.xlsx
+++ b/data/2D obstacles/2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\2D obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A82FC5E-6772-4D87-A5A5-F8A498F593A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC3E0C4-3D30-442B-93FE-A72E52CE790B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,12 +149,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -439,7 +440,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -558,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -568,14 +569,14 @@
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -585,7 +586,7 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -619,8 +620,10 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{88A72CC5-6AEB-4EEC-8A73-59AFAE643CE9}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{1662E996-667C-4172-ADE8-638A4D4ABDBA}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{E26C3336-DD40-433D-8E34-1CABEBB87EDD}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{E5A6A7A3-A34A-4F21-AEB8-6E7590F734BD}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{9C7C90D9-D515-452C-915C-64428BA607AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/data/2D obstacles/2D.xlsx
+++ b/data/2D obstacles/2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\2D obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC3E0C4-3D30-442B-93FE-A72E52CE790B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB322528-7CC0-4A31-BF49-76BA9D74F7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,12 +88,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -103,14 +97,20 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -147,15 +147,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,176 +439,176 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.9296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="187.9296875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9.06640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="9.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.1328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.46484375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.73046875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="187.9296875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="9.06640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>2023</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>2022</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>2021</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>2021</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
         <v>2021</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>2019</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>2019</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
     </row>

--- a/data/2D obstacles/2D.xlsx
+++ b/data/2D obstacles/2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\data\2D obstacles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB322528-7CC0-4A31-BF49-76BA9D74F7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2083A339-3E4D-423D-8773-B2175F033069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Number</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Du, Y.; Zhang, X.; Nie, Z. A Real-Time Collision Avoidance Strategy in Dynamic Airspace Based on Dynamic Artificial Potential Field Algorithm. IEEE Access 2019, 7, 169469-169479, http://doi.org/10.1109/access.2019.2953946.</t>
+  </si>
+  <si>
+    <t>Wu, Z.; Li, J.; Zuo, J.; Li, S. Path Planning of UAVs Based on Collision Probability and Kalman Filter. IEEE Access 2018, 6, 34237-34245, http://doi.org/10.1109/access.2018.2817648.</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
@@ -596,20 +599,41 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
+      <c r="B9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
